--- a/Imagine-Jason/evidence.xlsx
+++ b/Imagine-Jason/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="10125" windowHeight="15540" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,43 +91,199 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>A386A6042D83B533E4ECE580229C15086F754C060571E6550A6A6A5B541BED90</t>
+  </si>
+  <si>
+    <t>jasonrainbow</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>C349D4B7ECAA663F74B0A7EC83C0F60D5DE7C188F2095DDC34308367BB7FA6B5</t>
+  </si>
+  <si>
+    <t>gona2</t>
+  </si>
+  <si>
+    <t>55F64F5DE06B4FE997D4A291324D422775DD50E661FCA48E5B092304E5AF00DE</t>
+  </si>
+  <si>
+    <t>gona2/2</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>209226E267590A45250F9D448653A774EBBB8AD37A9A395C6AACC1C0FA30DC4E</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>07AD59DA9F4EC89FE565666A5096281CC157395FA353312A107379FCF5FFDB9E</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>8063AE5309724F7E8C1F75BDB8822F988C192EF042C2EB0ADB9F8B2BD862F174</t>
+  </si>
+  <si>
+    <t>56693D48121C9B55C3C4A6E10B9F693EE235E2B1C4721536CA04086C4A2D8C9A</t>
+  </si>
+  <si>
+    <t>ibc/FD3437E5B009B4A614F6460254FC13538330930D968C0E311DCF578DF4F4945A</t>
+  </si>
+  <si>
+    <t>rwa1</t>
+  </si>
+  <si>
+    <t>ibc/3E4EA490BF04E65B7554194BD8F29FB4F9FFC0BC6A400CB51C6FA51176A6BE04</t>
+  </si>
+  <si>
+    <t>rwa2</t>
+  </si>
+  <si>
+    <t>ibc/593F001DB5F6597A207B75F9F6C24995CC38F0C44235A38785ADFE287335940C</t>
+  </si>
+  <si>
+    <t>rwa3</t>
+  </si>
+  <si>
+    <t>ibc/B2D93A59917D0209D5BA6EB50910CFCB3D66BA3A23CAE42B332ADC9B65264324</t>
+  </si>
+  <si>
+    <t>rwa4</t>
+  </si>
+  <si>
+    <t>ibc/29CF79EAA929B1523A8DFA903FA5D93EC9B644653F2DF80A17AB6215980AF525</t>
+  </si>
+  <si>
+    <t>rwa5</t>
+  </si>
+  <si>
+    <t>ibc/A76F6A59DB22CFDC1D87C834F34D3C1394784685C9A096929BE84DA5768CC047</t>
+  </si>
+  <si>
+    <t>rwa6</t>
+  </si>
+  <si>
+    <t>F521065C2D7A200E791BFE4950D7EE786FF2A138931135044BFA53650BD9FEE1</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>7AE59C9FCDD706FF6D5FCD792C8D9CAD44577FBC95EE38A0CC4E6020E8152931</t>
+  </si>
+  <si>
+    <t>7DF8DB582E2E92FB9960F205C2EAF5E1B6816BF653B6FFC674175458628521AC</t>
+  </si>
+  <si>
+    <t>8168F3ACC892DB8BE96AA6F7AC1076D328A8A93216271C0E6C9264DC3C1CB6E1</t>
+  </si>
+  <si>
+    <t>20FBE2BBFAC270DA185B419FCD31D35334C05E7078F8B113BF34D6566ADE34A9</t>
+  </si>
+  <si>
+    <t>1F07F0E12D6E13609F2B82F6E268500F34546B726A7D95E1ED7251643B2A830C</t>
+  </si>
+  <si>
+    <t>253D70FFBB82A09B48023043F212A0BE2FFF0266DB1C385C2FA674BA3954244E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>8DE7630E9B933FEF024079ADF47A16027E7134C7706B8C27FEAE9C87D7346881</t>
+  </si>
+  <si>
+    <t>F59A5CA60C557C6C7C17A0F44BF7071FC97879BAA9056A1E03E08F69B368D8BA</t>
+  </si>
+  <si>
+    <t>03BD1611BC987C69C72A8FDFAD7D35395150FE87CB8D223F2B1032FA2425C893</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>5FE3BFD9B04FECF70E4A2C5A56FD34A3FE0E9F43044DE3B8DAB4C57430F85AEC</t>
+  </si>
+  <si>
+    <t>1F44417BB88B8675087E393EE8B57C20195DEB9A5FF2ADE2328079E9D58005A1</t>
+  </si>
+  <si>
+    <t>8978535219D929AB418C430885CCDF407551BC335BB8B421CB0E89CC0685C4BE</t>
+  </si>
+  <si>
+    <t>968D0A5F94A7F1D739E9B24B22A92A699830E9942A1CCF7769120C03CFF219D4</t>
+  </si>
+  <si>
+    <t>512F57119CA1D84EAC34BEABF8EC3225534C56D8240A920E3F09634F24506D95</t>
+  </si>
+  <si>
+    <t>26178AF82B6BC45DC8CD64553AACB34514B085C4AD8CCF38EE3BE1B8F177A647</t>
+  </si>
+  <si>
+    <t>58BD83A37EF2F44298A06DEE3F05A45522E05059F074EAC9C14AB310AA85293A</t>
+  </si>
+  <si>
+    <t>D932DE39D38FA1745F57ED3B7B90CA3C509891A6A35138629D921D559D2C2E13</t>
+  </si>
+  <si>
+    <t>17A4B2E7B431AE3E16D8A44CFE27EE2076C3AA0A5C5D05B6534F34C908C4D43A</t>
+  </si>
+  <si>
+    <t>C9A7EAD48BCF0A42D83854918792D237B0E43CCF62F7434219DF8FDDA709B536</t>
+  </si>
+  <si>
+    <t>C044D8C44A08AB62D9DAB0F698F8D3F693EAED8C8BEE5CD580E313D2A8CF5E8F</t>
+  </si>
+  <si>
+    <t>18CBA2EAB4B20788E21C7305E38AF8ABB6959C1543F8485FAE272FA9CEDECE0C</t>
+  </si>
+  <si>
+    <t>9E8AF7C7BD561E63341EE9E1D5716E2DA46C300FDE08F70FF1D8829EC78263DC</t>
+  </si>
+  <si>
+    <t>DF915DBBA30BD8332A90215B95F1DA8B69A0548AE653CA41D509564C23F62392</t>
+  </si>
+  <si>
+    <t>7AD75282393944CF6CA5339508251F2683C8A94D510DE0BF5446AE3C319C1B23</t>
+  </si>
+  <si>
+    <t>7B07A9746E751967A9CB505A2BC93BCD48EA14DAD78D0DC4F2646335778060D1</t>
+  </si>
+  <si>
+    <t>B59FCCED351E4F1AE858E42F0DD5AAB3FFC3D1A9817C55880F9E695B764AAB4A</t>
+  </si>
+  <si>
+    <t>41F031986FD3558817B7A6D10298F264834976DAE3EDA72B85DC6AA699B75DA4</t>
+  </si>
+  <si>
+    <t>0DBD886C32A4B646C13ABF14989176828E061B0FFDAC4105442C66E3CD97A441</t>
+  </si>
+  <si>
+    <t>5EB9E55C0A2E47951B723672B179E4A1E21B70B2E60A59A41C88A77EEA37DB38</t>
+  </si>
+  <si>
+    <t>E9B987B33FB5EC5EFAC670AD4558C952EF1C096C254E1257475CCCA0BEDC4104</t>
+  </si>
+  <si>
+    <t>FA68C7BCBD33DC555ABD660EF9686B6D6CFF7B03F2BDC0B4A95819FAA93A681F</t>
+  </si>
+  <si>
+    <t>2A16A4EEDEAEB5E1477BAB214E550D2E1237B649705E13A654C02C034C1C9761</t>
+  </si>
+  <si>
+    <t>B535137DFF17A346ABC4C04F1D9F08F8A628E47C52074573C3B762B97890567C</t>
+  </si>
+  <si>
+    <t>167A3B876FC6AA76B72E0192EF5B76ACEEA0542040560BF40C5A2AC1E29AE34B</t>
+  </si>
+  <si>
+    <t>4656F3D73743E9DE183FBC1FE0B88E64E85D4F4190C0F3B2ABAB70D8B726604E</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -1139,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1218,7 +1374,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1237,10 +1393,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1276,10 +1432,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1452,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1315,10 +1471,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1491,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1354,10 +1510,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1371,13 +1527,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1388,25 +1544,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1590,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1437,25 +1607,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1653,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1486,25 +1670,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1518,13 +1716,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1535,25 +1733,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1567,13 +1779,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1584,25 +1796,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1616,13 +1842,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1633,25 +1859,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1908,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1703,13 +1943,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1720,25 +1960,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2022,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4333333333333" style="1" customWidth="1"/>
@@ -1769,25 +2039,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1819,12 +2119,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1856,12 +2156,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1893,12 +2193,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +2230,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1949,13 +2249,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" style="1" customWidth="1"/>
@@ -1974,13 +2274,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2308,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2018,21 +2329,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2070,21 +2381,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2412,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2122,21 +2433,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2464,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2175,21 +2486,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2517,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2225,10 +2536,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2556,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2264,10 +2575,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
